--- a/aml_docs/Savings_Acct_statement.xlsx
+++ b/aml_docs/Savings_Acct_statement.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://exlservicenam-my.sharepoint.com/personal/rahav185254_exlservice_com/Documents/GenAI/SAR/AML/docs_new/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://exlservicenam-my.sharepoint.com/personal/rahav185254_exlservice_com/Documents/GenAI/SAR/AML/docs_new/20231025_aml_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{132B5B22-CB37-4B9F-A576-F609532A0140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7755753-7164-45C4-BF3B-14D89F6EEE4F}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{132B5B22-CB37-4B9F-A576-F609532A0140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00913ADC-0031-40B0-A887-1BF8384121CA}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="127">
   <si>
     <r>
       <rPr>
@@ -41,7 +41,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Bank Name</t>
@@ -51,7 +51,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>: ABC Bank</t>
     </r>
@@ -63,7 +63,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Account Holder:</t>
@@ -73,7 +73,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Sarah Jones</t>
     </r>
@@ -85,7 +85,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Account Number:</t>
@@ -95,7 +95,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 5142-2341-0893-7132</t>
     </r>
@@ -107,7 +107,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Account Type: </t>
@@ -117,7 +117,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>Savings</t>
     </r>
@@ -129,29 +129,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Date range:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 01/01/2022 – 08/31/2022</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Opening Balance: </t>
@@ -161,7 +139,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>$ 10,000.00</t>
     </r>
@@ -506,90 +484,9 @@
     <t>Jul 5, 2022</t>
   </si>
   <si>
-    <t>Jul 6, 2022</t>
-  </si>
-  <si>
-    <t>Jul, 9, 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Jul 10, 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Jul 12, 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Jul 15, 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Jul 17, 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Jul 20, 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Jul 22, 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Jul 25, 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Jul 26, 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Jul 28, 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Jul 31, 2022</t>
-  </si>
-  <si>
     <t xml:space="preserve"> End of Statement Period       </t>
   </si>
   <si>
-    <t xml:space="preserve"> Aug 3, 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Aug 5, 2022</t>
-  </si>
-  <si>
-    <t>Aug 7, 2022</t>
-  </si>
-  <si>
-    <t>Aug 8, 2022</t>
-  </si>
-  <si>
-    <t>Aug 9, 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Aug 10, 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Aug 12, 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Aug 15, 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Aug 17, 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Aug 20, 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Aug 22, 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Aug 25, 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Aug 26, 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Aug 28, 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Aug 31, 2022</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Jan 15, 2023</t>
   </si>
   <si>
@@ -605,28 +502,7 @@
     <t xml:space="preserve"> May 18, 2023</t>
   </si>
   <si>
-    <t>Aug 18, 2022</t>
-  </si>
-  <si>
-    <t>Jul 23, 2022</t>
-  </si>
-  <si>
     <t>Savings Account Transaction Statement-:</t>
-  </si>
-  <si>
-    <t>Jun 30, 2022</t>
-  </si>
-  <si>
-    <t>Jun 28, 2022</t>
-  </si>
-  <si>
-    <t>Jul 3, 2022</t>
-  </si>
-  <si>
-    <t>Jul 7, 2022</t>
-  </si>
-  <si>
-    <t>Jul 8, 2022</t>
   </si>
   <si>
     <r>
@@ -637,9 +513,23 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
-      <t>$ 63,722.00</t>
+      <t>$ 67,182.00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Date range:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 01/01/2022 – 05/07/2022</t>
     </r>
   </si>
 </sst>
@@ -647,7 +537,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -660,14 +550,22 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -690,12 +588,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1031,9 +930,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E152"/>
+  <dimension ref="A1:E117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="105" workbookViewId="0">
+      <selection activeCell="A115" sqref="A115"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
@@ -1065,48 +966,48 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
+      <c r="A5" s="5" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>160</v>
+      <c r="A7" s="5" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>7</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>8</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
         <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1120,10 +1021,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
         <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1138,10 +1039,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
         <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
       </c>
       <c r="C16">
         <v>200</v>
@@ -1156,10 +1057,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
         <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>18</v>
       </c>
       <c r="C17" s="3">
         <v>1000</v>
@@ -1174,10 +1075,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
         <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>20</v>
       </c>
       <c r="C18">
         <v>300</v>
@@ -1192,10 +1093,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
         <v>21</v>
-      </c>
-      <c r="B19" t="s">
-        <v>22</v>
       </c>
       <c r="C19">
         <v>100</v>
@@ -1210,10 +1111,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20">
         <v>1200</v>
@@ -1228,10 +1129,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
         <v>25</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
       </c>
       <c r="C21">
         <v>50</v>
@@ -1246,10 +1147,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22">
         <v>40</v>
@@ -1264,10 +1165,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23">
         <v>411</v>
@@ -1282,10 +1183,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" t="s">
         <v>30</v>
-      </c>
-      <c r="B24" t="s">
-        <v>31</v>
       </c>
       <c r="C24">
         <v>60</v>
@@ -1300,10 +1201,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1318,10 +1219,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" t="s">
         <v>33</v>
-      </c>
-      <c r="B26" t="s">
-        <v>34</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -1336,10 +1237,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1354,10 +1255,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C28">
         <v>180</v>
@@ -1372,10 +1273,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" t="s">
         <v>37</v>
-      </c>
-      <c r="B29" t="s">
-        <v>38</v>
       </c>
       <c r="C29">
         <v>200</v>
@@ -1390,10 +1291,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" t="s">
         <v>39</v>
-      </c>
-      <c r="B30" t="s">
-        <v>40</v>
       </c>
       <c r="C30">
         <v>50</v>
@@ -1408,10 +1309,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" t="s">
         <v>41</v>
-      </c>
-      <c r="B31" t="s">
-        <v>42</v>
       </c>
       <c r="C31">
         <v>45</v>
@@ -1426,10 +1327,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C32">
         <v>35</v>
@@ -1444,10 +1345,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1462,10 +1363,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C34">
         <v>50</v>
@@ -1480,10 +1381,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="B35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C35">
         <v>256</v>
@@ -1498,10 +1399,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C36">
         <v>250</v>
@@ -1516,10 +1417,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C37" s="3">
         <v>1200</v>
@@ -1534,10 +1435,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C38">
         <v>400</v>
@@ -1552,10 +1453,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C39">
         <v>100</v>
@@ -1570,10 +1471,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C40">
         <v>1200</v>
@@ -1588,10 +1489,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C41">
         <v>50</v>
@@ -1606,10 +1507,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C42">
         <v>35</v>
@@ -1624,10 +1525,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" t="s">
         <v>51</v>
-      </c>
-      <c r="B43" t="s">
-        <v>52</v>
       </c>
       <c r="C43">
         <v>75</v>
@@ -1642,10 +1543,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C44">
         <v>30</v>
@@ -1660,10 +1561,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -1678,10 +1579,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C46">
         <v>220</v>
@@ -1696,10 +1597,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C47">
         <v>300</v>
@@ -1714,10 +1615,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C48">
         <v>60</v>
@@ -1732,10 +1633,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B49" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C49">
         <v>50</v>
@@ -1750,10 +1651,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B50" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C50" s="4">
         <v>657</v>
@@ -1768,10 +1669,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -1786,10 +1687,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B52" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C52">
         <v>260</v>
@@ -1804,10 +1705,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B53" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C53">
         <v>100</v>
@@ -1822,10 +1723,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B54" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C54">
         <v>1200</v>
@@ -1840,10 +1741,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B55" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C55">
         <v>50</v>
@@ -1858,10 +1759,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B56" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C56" s="3">
         <v>1300</v>
@@ -1876,10 +1777,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B57" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C57">
         <v>350</v>
@@ -1894,10 +1795,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B58" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C58">
         <v>30</v>
@@ -1912,10 +1813,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B59" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C59">
         <v>70</v>
@@ -1930,10 +1831,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C60">
         <v>40</v>
@@ -1948,10 +1849,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B61" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C61">
         <v>50</v>
@@ -1966,10 +1867,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="B62" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C62">
         <v>1567</v>
@@ -1984,10 +1885,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B63" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -2002,10 +1903,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B64" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C64">
         <v>230</v>
@@ -2020,10 +1921,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B65" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -2038,10 +1939,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B66" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C66">
         <v>280</v>
@@ -2056,10 +1957,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C67">
         <v>65</v>
@@ -2074,10 +1975,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B68" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -2092,10 +1993,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B69" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C69">
         <v>270</v>
@@ -2110,10 +2011,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B70" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C70">
         <v>100</v>
@@ -2128,10 +2029,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B71" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C71">
         <v>1200</v>
@@ -2146,10 +2047,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B72" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C72">
         <v>65</v>
@@ -2164,10 +2065,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B73" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C73">
         <v>50</v>
@@ -2182,10 +2083,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B74" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C74" s="3">
         <v>1250</v>
@@ -2200,10 +2101,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="B75" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C75" s="3">
         <v>350</v>
@@ -2218,10 +2119,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C76">
         <v>350</v>
@@ -2236,10 +2137,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C77">
         <v>40</v>
@@ -2254,10 +2155,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C78">
         <v>70</v>
@@ -2272,10 +2173,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C79">
         <v>35</v>
@@ -2290,10 +2191,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -2308,10 +2209,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C81">
         <v>240</v>
@@ -2326,10 +2227,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C82">
         <v>280</v>
@@ -2344,10 +2245,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C83">
         <v>65</v>
@@ -2356,16 +2257,16 @@
         <v>0</v>
       </c>
       <c r="E83" s="3">
-        <f t="shared" ref="E83:E152" si="1">SUM(D83,-C83,E82)</f>
+        <f t="shared" ref="E83:E117" si="1">SUM(D83,-C83,E82)</f>
         <v>40887</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -2380,10 +2281,10 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C85">
         <v>260</v>
@@ -2398,10 +2299,10 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C86" s="3">
         <v>1300</v>
@@ -2416,10 +2317,10 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C87">
         <v>380</v>
@@ -2434,10 +2335,10 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C88">
         <v>100</v>
@@ -2452,10 +2353,10 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C89">
         <v>1200</v>
@@ -2470,10 +2371,10 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C90">
         <v>60</v>
@@ -2488,10 +2389,10 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C91">
         <v>45</v>
@@ -2506,10 +2407,10 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C92">
         <v>70</v>
@@ -2524,10 +2425,10 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2" t="s">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="B93" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C93">
         <v>440</v>
@@ -2542,10 +2443,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B94" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C94">
         <v>30</v>
@@ -2560,10 +2461,10 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B95" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -2578,10 +2479,10 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B96" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C96">
         <v>230</v>
@@ -2596,10 +2497,10 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B97" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C97">
         <v>280</v>
@@ -2614,10 +2515,10 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B98" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C98">
         <v>60</v>
@@ -2632,10 +2533,10 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B99" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -2650,10 +2551,10 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B100" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C100">
         <v>250</v>
@@ -2668,10 +2569,10 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B101" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C101" s="3">
         <v>1300</v>
@@ -2686,10 +2587,10 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B102" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C102">
         <v>420</v>
@@ -2704,10 +2605,10 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B103" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C103">
         <v>50</v>
@@ -2722,10 +2623,10 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B104" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C104">
         <v>100</v>
@@ -2740,10 +2641,10 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B105" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C105">
         <v>1200</v>
@@ -2758,10 +2659,10 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B106" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C106">
         <v>60</v>
@@ -2776,10 +2677,10 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B107" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C107">
         <v>85</v>
@@ -2794,10 +2695,10 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B108" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C108">
         <v>35</v>
@@ -2812,10 +2713,10 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B109" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -2830,10 +2731,10 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B110" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C110">
         <v>240</v>
@@ -2848,10 +2749,10 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B111" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C111">
         <v>320</v>
@@ -2866,10 +2767,10 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B112" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -2884,10 +2785,10 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B113" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C113" s="4">
         <v>10350</v>
@@ -2902,46 +2803,46 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="B114" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C114">
         <v>0</v>
       </c>
       <c r="D114" s="3">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="E114" s="3">
         <f t="shared" si="1"/>
-        <v>62462</v>
+        <v>57462</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="B115" t="s">
-        <v>28</v>
-      </c>
-      <c r="C115" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D115" s="3">
+        <v>15</v>
+      </c>
+      <c r="C115">
+        <v>280</v>
+      </c>
+      <c r="D115">
         <v>0</v>
       </c>
       <c r="E115" s="3">
         <f t="shared" si="1"/>
-        <v>52462</v>
+        <v>57182</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="B116" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -2951,655 +2852,25 @@
       </c>
       <c r="E116" s="3">
         <f t="shared" si="1"/>
-        <v>62462</v>
+        <v>67182</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2" t="s">
-        <v>157</v>
+        <v>117</v>
       </c>
       <c r="B117" t="s">
-        <v>28</v>
-      </c>
-      <c r="C117" s="4">
-        <v>10220</v>
-      </c>
-      <c r="D117" s="3">
+        <v>118</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117">
         <v>0</v>
       </c>
       <c r="E117" s="3">
         <f t="shared" si="1"/>
-        <v>52242</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="A118" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B118" t="s">
-        <v>14</v>
-      </c>
-      <c r="C118">
-        <v>0</v>
-      </c>
-      <c r="D118" s="3">
-        <v>5000</v>
-      </c>
-      <c r="E118" s="3">
-        <f t="shared" si="1"/>
-        <v>57242</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="A119" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B119" t="s">
-        <v>16</v>
-      </c>
-      <c r="C119">
-        <v>280</v>
-      </c>
-      <c r="D119">
-        <v>0</v>
-      </c>
-      <c r="E119" s="3">
-        <f t="shared" si="1"/>
-        <v>56962</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
-      <c r="A120" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B120" t="s">
-        <v>24</v>
-      </c>
-      <c r="C120">
-        <v>0</v>
-      </c>
-      <c r="D120" s="3">
-        <v>10000</v>
-      </c>
-      <c r="E120" s="3">
-        <f t="shared" si="1"/>
-        <v>66962</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
-      <c r="A121" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B121" t="s">
-        <v>28</v>
-      </c>
-      <c r="C121" s="4">
-        <v>10070</v>
-      </c>
-      <c r="D121" s="3">
-        <v>0</v>
-      </c>
-      <c r="E121" s="3">
-        <f t="shared" si="1"/>
-        <v>56892</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
-      <c r="A122" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B122" t="s">
-        <v>22</v>
-      </c>
-      <c r="C122">
-        <v>100</v>
-      </c>
-      <c r="D122">
-        <v>0</v>
-      </c>
-      <c r="E122" s="3">
-        <f t="shared" si="1"/>
-        <v>56792</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
-      <c r="A123" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B123" t="s">
-        <v>23</v>
-      </c>
-      <c r="C123">
-        <v>1200</v>
-      </c>
-      <c r="D123">
-        <v>0</v>
-      </c>
-      <c r="E123" s="3">
-        <f t="shared" si="1"/>
-        <v>55592</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
-      <c r="A124" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B124" t="s">
-        <v>26</v>
-      </c>
-      <c r="C124">
-        <v>65</v>
-      </c>
-      <c r="D124">
-        <v>0</v>
-      </c>
-      <c r="E124" s="3">
-        <f t="shared" si="1"/>
-        <v>55527</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
-      <c r="A125" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B125" t="s">
-        <v>18</v>
-      </c>
-      <c r="C125" s="3">
-        <v>1350</v>
-      </c>
-      <c r="D125">
-        <v>0</v>
-      </c>
-      <c r="E125" s="3">
-        <f t="shared" si="1"/>
-        <v>54177</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
-      <c r="A126" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B126" t="s">
-        <v>20</v>
-      </c>
-      <c r="C126">
-        <v>400</v>
-      </c>
-      <c r="D126">
-        <v>0</v>
-      </c>
-      <c r="E126" s="3">
-        <f t="shared" si="1"/>
-        <v>53777</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
-      <c r="A127" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B127" t="s">
-        <v>29</v>
-      </c>
-      <c r="C127">
-        <v>45</v>
-      </c>
-      <c r="D127">
-        <v>0</v>
-      </c>
-      <c r="E127" s="3">
-        <f t="shared" si="1"/>
-        <v>53732</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
-      <c r="A128" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B128" t="s">
-        <v>52</v>
-      </c>
-      <c r="C128">
-        <v>80</v>
-      </c>
-      <c r="D128">
-        <v>0</v>
-      </c>
-      <c r="E128" s="3">
-        <f t="shared" si="1"/>
-        <v>53652</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
-      <c r="A129" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B129" t="s">
-        <v>34</v>
-      </c>
-      <c r="C129">
-        <v>30</v>
-      </c>
-      <c r="D129">
-        <v>0</v>
-      </c>
-      <c r="E129" s="3">
-        <f t="shared" si="1"/>
-        <v>53622</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
-      <c r="A130" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B130" t="s">
-        <v>14</v>
-      </c>
-      <c r="C130">
-        <v>0</v>
-      </c>
-      <c r="D130" s="3">
-        <v>5000</v>
-      </c>
-      <c r="E130" s="3">
-        <f t="shared" si="1"/>
-        <v>58622</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
-      <c r="A131" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B131" t="s">
-        <v>28</v>
-      </c>
-      <c r="C131">
-        <v>5410</v>
-      </c>
-      <c r="D131" s="3">
-        <v>0</v>
-      </c>
-      <c r="E131" s="3">
-        <f t="shared" si="1"/>
-        <v>53212</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
-      <c r="A132" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B132" t="s">
-        <v>16</v>
-      </c>
-      <c r="C132">
-        <v>220</v>
-      </c>
-      <c r="D132">
-        <v>0</v>
-      </c>
-      <c r="E132" s="3">
-        <f t="shared" si="1"/>
-        <v>52992</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
-      <c r="A133" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B133" t="s">
-        <v>38</v>
-      </c>
-      <c r="C133">
-        <v>280</v>
-      </c>
-      <c r="D133">
-        <v>0</v>
-      </c>
-      <c r="E133" s="3">
-        <f t="shared" si="1"/>
-        <v>52712</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
-      <c r="A134" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B134" t="s">
-        <v>42</v>
-      </c>
-      <c r="C134">
-        <v>60</v>
-      </c>
-      <c r="D134">
-        <v>0</v>
-      </c>
-      <c r="E134" s="3">
-        <f t="shared" si="1"/>
-        <v>52652</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
-      <c r="A135" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B135" t="s">
-        <v>131</v>
-      </c>
-      <c r="C135">
-        <v>0</v>
-      </c>
-      <c r="D135">
-        <v>0</v>
-      </c>
-      <c r="E135" s="3">
-        <f t="shared" si="1"/>
-        <v>52652</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
-      <c r="A136" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B136" t="s">
-        <v>14</v>
-      </c>
-      <c r="C136">
-        <v>0</v>
-      </c>
-      <c r="D136" s="3">
-        <v>5000</v>
-      </c>
-      <c r="E136" s="3">
-        <f t="shared" si="1"/>
-        <v>57652</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
-      <c r="A137" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B137" t="s">
-        <v>16</v>
-      </c>
-      <c r="C137">
-        <v>280</v>
-      </c>
-      <c r="D137">
-        <v>0</v>
-      </c>
-      <c r="E137" s="3">
-        <f t="shared" si="1"/>
-        <v>57372</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
-      <c r="A138" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B138" t="s">
-        <v>22</v>
-      </c>
-      <c r="C138">
-        <v>100</v>
-      </c>
-      <c r="D138">
-        <v>0</v>
-      </c>
-      <c r="E138" s="3">
-        <f t="shared" si="1"/>
-        <v>57272</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
-      <c r="A139" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B139" t="s">
-        <v>23</v>
-      </c>
-      <c r="C139">
-        <v>1200</v>
-      </c>
-      <c r="D139">
-        <v>0</v>
-      </c>
-      <c r="E139" s="3">
-        <f t="shared" si="1"/>
-        <v>56072</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
-      <c r="A140" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B140" t="s">
-        <v>24</v>
-      </c>
-      <c r="C140">
-        <v>0</v>
-      </c>
-      <c r="D140" s="3">
-        <v>6000</v>
-      </c>
-      <c r="E140" s="3">
-        <f t="shared" si="1"/>
-        <v>62072</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
-      <c r="A141" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B141" t="s">
-        <v>26</v>
-      </c>
-      <c r="C141">
-        <v>65</v>
-      </c>
-      <c r="D141">
-        <v>0</v>
-      </c>
-      <c r="E141" s="3">
-        <f t="shared" si="1"/>
-        <v>62007</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5">
-      <c r="A142" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B142" t="s">
-        <v>18</v>
-      </c>
-      <c r="C142" s="3">
-        <v>1350</v>
-      </c>
-      <c r="D142">
-        <v>0</v>
-      </c>
-      <c r="E142" s="3">
-        <f t="shared" si="1"/>
-        <v>60657</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5">
-      <c r="A143" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B143" t="s">
-        <v>20</v>
-      </c>
-      <c r="C143">
-        <v>400</v>
-      </c>
-      <c r="D143">
-        <v>0</v>
-      </c>
-      <c r="E143" s="3">
-        <f t="shared" si="1"/>
-        <v>60257</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5">
-      <c r="A144" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B144" t="s">
-        <v>29</v>
-      </c>
-      <c r="C144">
-        <v>45</v>
-      </c>
-      <c r="D144">
-        <v>0</v>
-      </c>
-      <c r="E144" s="3">
-        <f t="shared" si="1"/>
-        <v>60212</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5">
-      <c r="A145" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B145" t="s">
-        <v>52</v>
-      </c>
-      <c r="C145">
-        <v>80</v>
-      </c>
-      <c r="D145">
-        <v>0</v>
-      </c>
-      <c r="E145" s="3">
-        <f t="shared" si="1"/>
-        <v>60132</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5">
-      <c r="A146" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B146" t="s">
-        <v>28</v>
-      </c>
-      <c r="C146">
-        <v>530</v>
-      </c>
-      <c r="D146">
-        <v>0</v>
-      </c>
-      <c r="E146" s="3">
-        <f t="shared" si="1"/>
-        <v>59602</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5">
-      <c r="A147" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B147" t="s">
-        <v>34</v>
-      </c>
-      <c r="C147">
-        <v>30</v>
-      </c>
-      <c r="D147">
-        <v>0</v>
-      </c>
-      <c r="E147" s="3">
-        <f t="shared" si="1"/>
-        <v>59572</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5">
-      <c r="A148" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B148" t="s">
-        <v>14</v>
-      </c>
-      <c r="C148">
-        <v>0</v>
-      </c>
-      <c r="D148" s="3">
-        <v>5000</v>
-      </c>
-      <c r="E148" s="3">
-        <f t="shared" si="1"/>
-        <v>64572</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5">
-      <c r="A149" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B149" t="s">
-        <v>16</v>
-      </c>
-      <c r="C149">
-        <v>220</v>
-      </c>
-      <c r="D149">
-        <v>0</v>
-      </c>
-      <c r="E149" s="3">
-        <f t="shared" si="1"/>
-        <v>64352</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5">
-      <c r="A150" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B150" t="s">
-        <v>38</v>
-      </c>
-      <c r="C150">
-        <v>280</v>
-      </c>
-      <c r="D150">
-        <v>0</v>
-      </c>
-      <c r="E150" s="3">
-        <f t="shared" si="1"/>
-        <v>64072</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5">
-      <c r="A151" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B151" t="s">
-        <v>42</v>
-      </c>
-      <c r="C151">
-        <v>60</v>
-      </c>
-      <c r="D151">
-        <v>0</v>
-      </c>
-      <c r="E151" s="3">
-        <f t="shared" si="1"/>
-        <v>64012</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
-      <c r="A152" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B152" t="s">
-        <v>131</v>
-      </c>
-      <c r="C152">
-        <v>0</v>
-      </c>
-      <c r="D152">
-        <v>0</v>
-      </c>
-      <c r="E152" s="3">
-        <f t="shared" si="1"/>
-        <v>64012</v>
+        <v>67182</v>
       </c>
     </row>
   </sheetData>
